--- a/Sub-System Design and Documentation/4 Structure and Drive Train Assembly/Drive Train Calculations 2.xlsx
+++ b/Sub-System Design and Documentation/4 Structure and Drive Train Assembly/Drive Train Calculations 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy Rohmann\Documents\Repositories\Microgravity-Press-Washing-Machine\Sub-System Design and Documentation\4 Structure and Drive Train Assembly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/Sub-System Design and Documentation/4 Structure and Drive Train Assembly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAA6B9C-80F3-4AB5-A3F7-F08D2B1D8BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{4AAA6B9C-80F3-4AB5-A3F7-F08D2B1D8BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA1F8A23-83DC-4024-903F-CC290AE398B6}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" firstSheet="1" activeTab="2" xr2:uid="{73A7591B-B5CA-4318-9343-9B3FDBEBCAB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{73A7591B-B5CA-4318-9343-9B3FDBEBCAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Design and Material Specs" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="198">
   <si>
     <t>Clamping Screws for middle support to clamp down wash chamber</t>
   </si>
@@ -1548,16 +1548,16 @@
   <dimension ref="B3:M54"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="32.265625" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>26</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>96</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>123</v>
       </c>
@@ -1638,12 +1638,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -1654,29 +1654,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D18">
-        <v>1.5</v>
+      <c r="D18" t="s">
+        <v>13</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -1687,17 +1687,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>72</v>
       </c>
@@ -1708,12 +1708,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>74</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>75</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>77</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>48</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>50</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>55</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>59</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>63</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>65</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>69</v>
       </c>
@@ -1880,17 +1880,17 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="26.3984375" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>186</v>
       </c>
@@ -1907,42 +1907,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7F30C8-AEF8-4367-97CA-93B5B12A08F4}">
   <dimension ref="B2:AE88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.46484375" customWidth="1"/>
-    <col min="3" max="3" width="36.46484375" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.1328125" customWidth="1"/>
-    <col min="12" max="12" width="12.265625" customWidth="1"/>
-    <col min="13" max="13" width="39.1328125" customWidth="1"/>
-    <col min="15" max="15" width="10.73046875" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="39.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="O4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>12.566370614359172</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -2000,10 +2000,10 @@
       </c>
       <c r="U8">
         <f>AppliedForceNormal/U7</f>
-        <v>79.577471545947674</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+        <v>63.661977236758133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>24</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>12.124584147448108</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>27</v>
       </c>
@@ -2045,10 +2045,10 @@
       </c>
       <c r="U10">
         <f>U8*U9</f>
-        <v>964.84375</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+        <v>771.87499999999989</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>78</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>10.725</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>79</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>80</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>0.25517271392884311</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="O15" t="s">
         <v>79</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>0.56999648254317858</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>82</v>
       </c>
@@ -2140,12 +2140,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="N18" t="s">
         <v>82</v>
       </c>
@@ -2157,23 +2157,23 @@
         <v>150156.17347792178</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="O19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="3:31" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:31" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="3:31" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="36" spans="3:31" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C36" s="30" t="s">
         <v>147</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="3:31" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C37" s="14" t="s">
         <v>175</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="3:31" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C38" s="14" t="s">
         <v>2</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="3:31" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C39" s="17"/>
       <c r="D39" s="9" t="s">
         <v>16</v>
@@ -2252,7 +2252,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="3:31" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C40" s="14" t="s">
         <v>91</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="3:31" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C41" s="14" t="s">
         <v>89</v>
       </c>
@@ -2305,19 +2305,19 @@
       </c>
       <c r="N41" s="1">
         <f>D42</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O41" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="3:31" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C42" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D42" s="11">
         <f>AppliedForceNormal/D41</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>113</v>
@@ -2335,13 +2335,13 @@
       </c>
       <c r="N42" s="3">
         <f>N41/COS(I53)</f>
-        <v>501.79803256586695</v>
+        <v>403.10433019261211</v>
       </c>
       <c r="O42" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="3:31" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C43" s="14" t="s">
         <v>99</v>
       </c>
@@ -2367,13 +2367,13 @@
       </c>
       <c r="N43" s="3">
         <f>SQRT((N42^2)-(N41^2))</f>
-        <v>42.441318157838253</v>
+        <v>49.930962538633892</v>
       </c>
       <c r="O43" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="3:31" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C44" s="14" t="s">
         <v>12</v>
       </c>
@@ -2389,8 +2389,7 @@
         <v>127</v>
       </c>
       <c r="I44" s="5">
-        <f>0.75</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="J44" t="s">
         <v>76</v>
@@ -2400,19 +2399,19 @@
       </c>
       <c r="N44" s="3">
         <f>N42*CoeffStaticFrictionBrassonSteelLubricated</f>
-        <v>95.34162618751472</v>
+        <v>76.589822736596304</v>
       </c>
       <c r="O44" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="3:31" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C45" s="14" t="s">
         <v>100</v>
       </c>
       <c r="D45" s="11">
         <f>SQRT((4*D42*D44)/(D43*PI()))</f>
-        <v>0.19127818286337878</v>
+        <v>0.17108440779806014</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>76</v>
@@ -2422,7 +2421,7 @@
         <v>130</v>
       </c>
       <c r="I45" s="5">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="J45" t="s">
         <v>136</v>
@@ -2432,13 +2431,13 @@
       </c>
       <c r="N45" s="3">
         <f>N43+COS(I53)*N44</f>
-        <v>137.44131815783825</v>
+        <v>125.93096253863389</v>
       </c>
       <c r="O45" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="3:31" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C46" s="14" t="s">
         <v>103</v>
       </c>
@@ -2456,7 +2455,7 @@
       </c>
       <c r="I46" s="4">
         <f>(I44+I45)/2</f>
-        <v>0.625</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J46" t="s">
         <v>136</v>
@@ -2466,13 +2465,13 @@
       </c>
       <c r="N46" s="4">
         <f>N45*(I46/2)/12</f>
-        <v>3.5792009936937048</v>
+        <v>2.2300274616216416</v>
       </c>
       <c r="O46" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="3:31" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C47" s="17"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
@@ -2482,7 +2481,7 @@
       </c>
       <c r="I47" s="3">
         <f>I46*PI()</f>
-        <v>1.9634954084936207</v>
+        <v>1.3351768777756621</v>
       </c>
       <c r="J47" t="s">
         <v>138</v>
@@ -2492,13 +2491,13 @@
       </c>
       <c r="N47" s="4">
         <f>N46*16*12</f>
-        <v>687.2065907891913</v>
+        <v>428.16527263135515</v>
       </c>
       <c r="O47" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="3:31" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C48" s="18" t="s">
         <v>104</v>
       </c>
@@ -2513,20 +2512,20 @@
       </c>
       <c r="I48" s="4">
         <f>((I45/2)^2)*PI()</f>
-        <v>0.19634954084936207</v>
+        <v>9.6211275016187398E-2</v>
       </c>
       <c r="M48" t="s">
         <v>111</v>
       </c>
       <c r="N48" s="4">
         <f>N46*0.4535*30.48</f>
-        <v>49.474149991510103</v>
+        <v>30.824955993208231</v>
       </c>
       <c r="O48" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="18" t="s">
         <v>101</v>
       </c>
@@ -2542,13 +2541,13 @@
       </c>
       <c r="I49" s="27">
         <f>PI()*((I45/2)^4)/2</f>
-        <v>6.1359231515425647E-3</v>
+        <v>1.4732351486853694E-3</v>
       </c>
       <c r="J49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C50" s="18" t="s">
         <v>106</v>
       </c>
@@ -2563,13 +2562,13 @@
       </c>
       <c r="N50">
         <f>N45/I49</f>
-        <v>22399.45233396309</v>
+        <v>85479.200418892709</v>
       </c>
       <c r="O50" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C51" s="22" t="s">
         <v>115</v>
       </c>
@@ -2590,7 +2589,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
         <v>133</v>
       </c>
@@ -2601,41 +2600,41 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
         <v>172</v>
       </c>
       <c r="I53" s="4">
         <f>ATAN(I51/I47)</f>
-        <v>8.4679651555430821E-2</v>
+        <v>0.12418505257199988</v>
       </c>
       <c r="J53" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H54" s="29" t="s">
         <v>172</v>
       </c>
       <c r="I54" s="29">
         <f>DEGREES(I53)</f>
-        <v>4.8517866447646032</v>
+        <v>7.1152793909858421</v>
       </c>
       <c r="J54" s="29" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H58" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
         <v>152</v>
       </c>
@@ -2643,7 +2642,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H60" t="s">
         <v>140</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
         <v>140</v>
       </c>
@@ -2667,12 +2666,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H62" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:15" x14ac:dyDescent="0.25">
       <c r="M64" t="s">
         <v>142</v>
       </c>
@@ -2680,12 +2679,12 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="65" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="66" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>117</v>
       </c>
@@ -2693,7 +2692,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>118</v>
       </c>
@@ -2711,10 +2710,10 @@
       </c>
       <c r="N67">
         <f>N48</f>
-        <v>49.474149991510103</v>
-      </c>
-    </row>
-    <row r="68" spans="3:14" x14ac:dyDescent="0.45">
+        <v>30.824955993208231</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>119</v>
       </c>
@@ -2733,10 +2732,10 @@
       </c>
       <c r="N68">
         <f>N67*I69/N64</f>
-        <v>26.039026311321109</v>
-      </c>
-    </row>
-    <row r="69" spans="3:14" x14ac:dyDescent="0.45">
+        <v>16.223661049056965</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>120</v>
       </c>
@@ -2747,7 +2746,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="70" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>121</v>
       </c>
@@ -2762,7 +2761,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="71" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>122</v>
       </c>
@@ -2777,7 +2776,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="76" spans="3:14" x14ac:dyDescent="0.25">
       <c r="H76" t="s">
         <v>168</v>
       </c>
@@ -2789,12 +2788,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="78" spans="3:14" x14ac:dyDescent="0.25">
       <c r="H78" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="79" spans="3:14" x14ac:dyDescent="0.25">
       <c r="H79" t="s">
         <v>160</v>
       </c>
@@ -2805,7 +2804,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="80" spans="3:14" x14ac:dyDescent="0.25">
       <c r="H80" t="s">
         <v>161</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="8:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H81" t="s">
         <v>166</v>
       </c>
@@ -2828,12 +2827,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="8:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H82" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="8:10" x14ac:dyDescent="0.45">
+    <row r="85" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H85" t="s">
         <v>142</v>
       </c>
@@ -2841,7 +2840,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="86" spans="8:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H86" t="s">
         <v>163</v>
       </c>
@@ -2849,12 +2848,12 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="87" spans="8:10" x14ac:dyDescent="0.45">
+    <row r="87" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H87" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="8:10" x14ac:dyDescent="0.45">
+    <row r="88" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H88" t="s">
         <v>162</v>
       </c>
@@ -2878,32 +2877,32 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="95.1328125" customWidth="1"/>
+    <col min="3" max="3" width="95.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -2911,7 +2910,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>35</v>
       </c>
@@ -2919,7 +2918,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>37</v>
       </c>
@@ -2927,12 +2926,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>40</v>
       </c>
@@ -2940,7 +2939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>42</v>
       </c>
@@ -2948,7 +2947,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>44</v>
       </c>
@@ -2956,7 +2955,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>46</v>
       </c>
